--- a/cpu_affinity/fio_logs/fuse_results.xlsx
+++ b/cpu_affinity/fio_logs/fuse_results.xlsx
@@ -558,7 +558,7 @@
         <v>12.05</v>
       </c>
       <c r="J4">
-        <v>24.91</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -590,7 +590,7 @@
         <v>8.83</v>
       </c>
       <c r="J5">
-        <v>25.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -622,7 +622,7 @@
         <v>5.66</v>
       </c>
       <c r="J6">
-        <v>13.44</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -654,7 +654,7 @@
         <v>3.25</v>
       </c>
       <c r="J7">
-        <v>12.3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -718,7 +718,7 @@
         <v>6.83</v>
       </c>
       <c r="J9">
-        <v>84.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -750,7 +750,7 @@
         <v>5.94</v>
       </c>
       <c r="J10">
-        <v>87.31</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -782,7 +782,7 @@
         <v>5.27</v>
       </c>
       <c r="J11">
-        <v>78.28</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -814,7 +814,7 @@
         <v>5.28</v>
       </c>
       <c r="J12">
-        <v>73.97</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -846,7 +846,7 @@
         <v>3.39</v>
       </c>
       <c r="J13">
-        <v>44.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -878,7 +878,7 @@
         <v>9.81</v>
       </c>
       <c r="J14">
-        <v>48.38</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -942,7 +942,7 @@
         <v>7.84</v>
       </c>
       <c r="J16">
-        <v>41.26</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -974,7 +974,7 @@
         <v>5.02</v>
       </c>
       <c r="J17">
-        <v>23.87</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1006,7 +1006,7 @@
         <v>2.81</v>
       </c>
       <c r="J18">
-        <v>20.66</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1038,7 +1038,7 @@
         <v>2.28</v>
       </c>
       <c r="J19">
-        <v>17.63</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1230,7 +1230,7 @@
         <v>2.6</v>
       </c>
       <c r="J25">
-        <v>41.73</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1294,7 +1294,7 @@
         <v>36.59</v>
       </c>
       <c r="J27">
-        <v>70.37</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1326,7 +1326,7 @@
         <v>30.01</v>
       </c>
       <c r="J28">
-        <v>55.3</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1358,7 +1358,7 @@
         <v>12.64</v>
       </c>
       <c r="J29">
-        <v>16.99</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1390,7 +1390,7 @@
         <v>6.5</v>
       </c>
       <c r="J30">
-        <v>13.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1422,7 +1422,7 @@
         <v>3.65</v>
       </c>
       <c r="J31">
-        <v>14.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1614,7 +1614,7 @@
         <v>3.58</v>
       </c>
       <c r="J37">
-        <v>80.52</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1710,7 +1710,7 @@
         <v>10.51</v>
       </c>
       <c r="J40">
-        <v>54.11</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1742,7 +1742,7 @@
         <v>12.27</v>
       </c>
       <c r="J41">
-        <v>63.78</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1774,7 +1774,7 @@
         <v>6.86</v>
       </c>
       <c r="J42">
-        <v>40.95</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1806,7 +1806,7 @@
         <v>3.41</v>
       </c>
       <c r="J43">
-        <v>24.51</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:10">

--- a/cpu_affinity/fio_logs/fuse_results.xlsx
+++ b/cpu_affinity/fio_logs/fuse_results.xlsx
@@ -476,22 +476,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7.321</v>
+        <v>7.062</v>
       </c>
       <c r="E2">
-        <v>915.1</v>
+        <v>882.76</v>
       </c>
       <c r="F2">
-        <v>136.35</v>
+        <v>141.36</v>
       </c>
       <c r="G2">
-        <v>230.4</v>
+        <v>234.5</v>
       </c>
       <c r="H2">
-        <v>236.54</v>
+        <v>238.59</v>
       </c>
       <c r="I2">
-        <v>14.22</v>
+        <v>15.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -508,25 +508,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13.873</v>
+        <v>13.991</v>
       </c>
       <c r="E3">
-        <v>1734.12</v>
+        <v>1748.93</v>
       </c>
       <c r="F3">
-        <v>143.43</v>
+        <v>142.43</v>
       </c>
       <c r="G3">
-        <v>248.83</v>
+        <v>244.74</v>
       </c>
       <c r="H3">
-        <v>284.67</v>
+        <v>276.48</v>
       </c>
       <c r="I3">
-        <v>14.16</v>
+        <v>13.02</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -540,25 +540,25 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>23.011</v>
+        <v>21.154</v>
       </c>
       <c r="E4">
-        <v>2876.4</v>
+        <v>2644.29</v>
       </c>
       <c r="F4">
-        <v>171.38</v>
+        <v>184.68</v>
       </c>
       <c r="G4">
-        <v>333.82</v>
+        <v>411.65</v>
       </c>
       <c r="H4">
-        <v>391.17</v>
+        <v>505.86</v>
       </c>
       <c r="I4">
-        <v>12.05</v>
+        <v>11.09</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -572,25 +572,25 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>27.501</v>
+        <v>24.228</v>
       </c>
       <c r="E5">
-        <v>3437.68</v>
+        <v>3028.47</v>
       </c>
       <c r="F5">
-        <v>265.15</v>
+        <v>316.02</v>
       </c>
       <c r="G5">
-        <v>757.76</v>
+        <v>839.6799999999999</v>
       </c>
       <c r="H5">
-        <v>937.98</v>
+        <v>978.9400000000001</v>
       </c>
       <c r="I5">
-        <v>8.83</v>
+        <v>6.7</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -604,25 +604,25 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>32.387</v>
+        <v>26.293</v>
       </c>
       <c r="E6">
-        <v>4048.43</v>
+        <v>3286.66</v>
       </c>
       <c r="F6">
-        <v>448.26</v>
+        <v>566.87</v>
       </c>
       <c r="G6">
-        <v>1286.14</v>
+        <v>1515.52</v>
       </c>
       <c r="H6">
-        <v>1695.74</v>
+        <v>1744.9</v>
       </c>
       <c r="I6">
-        <v>5.66</v>
+        <v>7.7</v>
       </c>
       <c r="J6">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -636,22 +636,22 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>31.61</v>
+        <v>30.229</v>
       </c>
       <c r="E7">
-        <v>3951.28</v>
+        <v>3778.6</v>
       </c>
       <c r="F7">
-        <v>958.13</v>
+        <v>975.29</v>
       </c>
       <c r="G7">
-        <v>2113.54</v>
+        <v>2244.61</v>
       </c>
       <c r="H7">
-        <v>2539.52</v>
+        <v>2736.13</v>
       </c>
       <c r="I7">
-        <v>3.25</v>
+        <v>4.36</v>
       </c>
       <c r="J7">
         <v>0.12</v>
@@ -668,25 +668,25 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>16.806</v>
+        <v>19.752</v>
       </c>
       <c r="E8">
-        <v>65.65000000000001</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="F8">
-        <v>59.11</v>
+        <v>50.24</v>
       </c>
       <c r="G8">
-        <v>126.46</v>
+        <v>110.08</v>
       </c>
       <c r="H8">
-        <v>162.82</v>
+        <v>136.19</v>
       </c>
       <c r="I8">
-        <v>11.12</v>
+        <v>12.98</v>
       </c>
       <c r="J8">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -700,25 +700,25 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>39.488</v>
+        <v>38.707</v>
       </c>
       <c r="E9">
-        <v>154.25</v>
+        <v>151.2</v>
       </c>
       <c r="F9">
-        <v>50.18</v>
+        <v>47.06</v>
       </c>
       <c r="G9">
-        <v>112.13</v>
+        <v>103.94</v>
       </c>
       <c r="H9">
-        <v>154.62</v>
+        <v>146.43</v>
       </c>
       <c r="I9">
-        <v>6.83</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="J9">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -732,25 +732,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>79.18600000000001</v>
+        <v>81.62</v>
       </c>
       <c r="E10">
-        <v>309.32</v>
+        <v>318.83</v>
       </c>
       <c r="F10">
-        <v>48.55</v>
+        <v>46.58</v>
       </c>
       <c r="G10">
-        <v>120.32</v>
+        <v>116.22</v>
       </c>
       <c r="H10">
-        <v>171.01</v>
+        <v>162.82</v>
       </c>
       <c r="I10">
-        <v>5.94</v>
+        <v>6.07</v>
       </c>
       <c r="J10">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -764,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>146.306</v>
+        <v>144.223</v>
       </c>
       <c r="E11">
-        <v>571.51</v>
+        <v>563.37</v>
       </c>
       <c r="F11">
-        <v>52.12</v>
+        <v>54.38</v>
       </c>
       <c r="G11">
-        <v>144.38</v>
+        <v>150.53</v>
       </c>
       <c r="H11">
-        <v>220.16</v>
+        <v>236.54</v>
       </c>
       <c r="I11">
-        <v>5.27</v>
+        <v>5.04</v>
       </c>
       <c r="J11">
         <v>0.78</v>
@@ -796,25 +796,25 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>208.01</v>
+        <v>203.104</v>
       </c>
       <c r="E12">
-        <v>812.54</v>
+        <v>793.38</v>
       </c>
       <c r="F12">
-        <v>73.62</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="G12">
-        <v>203.78</v>
+        <v>211.97</v>
       </c>
       <c r="H12">
-        <v>317.44</v>
+        <v>329.73</v>
       </c>
       <c r="I12">
-        <v>5.28</v>
+        <v>5.27</v>
       </c>
       <c r="J12">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -828,25 +828,25 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>215.995</v>
+        <v>187.476</v>
       </c>
       <c r="E13">
-        <v>843.73</v>
+        <v>732.33</v>
       </c>
       <c r="F13">
-        <v>143.33</v>
+        <v>168.47</v>
       </c>
       <c r="G13">
-        <v>370.69</v>
+        <v>423.94</v>
       </c>
       <c r="H13">
-        <v>505.86</v>
+        <v>577.54</v>
       </c>
       <c r="I13">
-        <v>3.39</v>
+        <v>2.86</v>
       </c>
       <c r="J13">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -860,25 +860,25 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>5.657</v>
+        <v>4.245</v>
       </c>
       <c r="E14">
-        <v>707.1799999999999</v>
+        <v>530.5700000000001</v>
       </c>
       <c r="F14">
-        <v>56.22</v>
+        <v>55.65</v>
       </c>
       <c r="G14">
-        <v>66.05</v>
+        <v>63.74</v>
       </c>
       <c r="H14">
-        <v>228.35</v>
+        <v>216.06</v>
       </c>
       <c r="I14">
-        <v>9.81</v>
+        <v>7.47</v>
       </c>
       <c r="J14">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -892,25 +892,25 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>10.304</v>
+        <v>8.467000000000001</v>
       </c>
       <c r="E15">
-        <v>1288.05</v>
+        <v>1058.4</v>
       </c>
       <c r="F15">
-        <v>59.94</v>
+        <v>55.59</v>
       </c>
       <c r="G15">
-        <v>80.38</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="H15">
-        <v>115.2</v>
+        <v>85.5</v>
       </c>
       <c r="I15">
-        <v>11.08</v>
+        <v>7.73</v>
       </c>
       <c r="J15">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -924,25 +924,25 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>13.693</v>
+        <v>13.076</v>
       </c>
       <c r="E16">
-        <v>1711.66</v>
+        <v>1634.48</v>
       </c>
       <c r="F16">
-        <v>69.18000000000001</v>
+        <v>75.12</v>
       </c>
       <c r="G16">
-        <v>91.65000000000001</v>
+        <v>140.29</v>
       </c>
       <c r="H16">
-        <v>207.87</v>
+        <v>333.82</v>
       </c>
       <c r="I16">
-        <v>7.84</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="J16">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -956,25 +956,25 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>9.145</v>
+        <v>9.656000000000001</v>
       </c>
       <c r="E17">
-        <v>1143.18</v>
+        <v>1207.01</v>
       </c>
       <c r="F17">
-        <v>102.84</v>
+        <v>99.47</v>
       </c>
       <c r="G17">
-        <v>136.19</v>
+        <v>134.14</v>
       </c>
       <c r="H17">
-        <v>399.36</v>
+        <v>354.3</v>
       </c>
       <c r="I17">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="J17">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -988,25 +988,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>6.992</v>
+        <v>22.212</v>
       </c>
       <c r="E18">
-        <v>873.95</v>
+        <v>2776.48</v>
       </c>
       <c r="F18">
-        <v>999.72</v>
+        <v>447.09</v>
       </c>
       <c r="G18">
-        <v>391.17</v>
+        <v>325.63</v>
       </c>
       <c r="H18">
-        <v>42729.47</v>
+        <v>6914.05</v>
       </c>
       <c r="I18">
-        <v>2.81</v>
+        <v>6.29</v>
       </c>
       <c r="J18">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1020,25 +1020,25 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <v>15.409</v>
+        <v>9.555</v>
       </c>
       <c r="E19">
-        <v>1926.17</v>
+        <v>1194.39</v>
       </c>
       <c r="F19">
-        <v>1271.95</v>
+        <v>1402.83</v>
       </c>
       <c r="G19">
-        <v>485.38</v>
+        <v>436.22</v>
       </c>
       <c r="H19">
-        <v>41680.9</v>
+        <v>44826.62</v>
       </c>
       <c r="I19">
-        <v>2.28</v>
+        <v>1.51</v>
       </c>
       <c r="J19">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1052,25 +1052,25 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>108.414</v>
+        <v>97.343</v>
       </c>
       <c r="E20">
-        <v>423.49</v>
+        <v>380.25</v>
       </c>
       <c r="F20">
-        <v>7.85</v>
+        <v>8.91</v>
       </c>
       <c r="G20">
-        <v>12.61</v>
+        <v>22.66</v>
       </c>
       <c r="H20">
-        <v>25.22</v>
+        <v>35.07</v>
       </c>
       <c r="I20">
-        <v>35.46</v>
+        <v>32.43</v>
       </c>
       <c r="J20">
-        <v>5.17</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1084,25 +1084,25 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>225.113</v>
+        <v>194.037</v>
       </c>
       <c r="E21">
-        <v>879.35</v>
+        <v>757.96</v>
       </c>
       <c r="F21">
-        <v>6.78</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G21">
-        <v>8.380000000000001</v>
+        <v>10.56</v>
       </c>
       <c r="H21">
-        <v>11.84</v>
+        <v>32.13</v>
       </c>
       <c r="I21">
-        <v>31.47</v>
+        <v>34.41</v>
       </c>
       <c r="J21">
-        <v>4.13</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1116,25 +1116,25 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>339.125</v>
+        <v>340.557</v>
       </c>
       <c r="E22">
-        <v>1324.71</v>
+        <v>1330.3</v>
       </c>
       <c r="F22">
-        <v>8.029999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="G22">
-        <v>10.69</v>
+        <v>10.18</v>
       </c>
       <c r="H22">
-        <v>12.22</v>
+        <v>12.1</v>
       </c>
       <c r="I22">
-        <v>31.43</v>
+        <v>31.32</v>
       </c>
       <c r="J22">
-        <v>5.02</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1148,25 +1148,25 @@
         <v>8</v>
       </c>
       <c r="D23">
-        <v>498.254</v>
+        <v>481.993</v>
       </c>
       <c r="E23">
-        <v>1946.31</v>
+        <v>1882.79</v>
       </c>
       <c r="F23">
-        <v>10.99</v>
+        <v>11.04</v>
       </c>
       <c r="G23">
         <v>15.04</v>
       </c>
       <c r="H23">
-        <v>24.19</v>
+        <v>23.68</v>
       </c>
       <c r="I23">
-        <v>35.76</v>
+        <v>33.15</v>
       </c>
       <c r="J23">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1180,25 +1180,25 @@
         <v>16</v>
       </c>
       <c r="D24">
-        <v>535.876</v>
+        <v>520.967</v>
       </c>
       <c r="E24">
-        <v>2093.27</v>
+        <v>2035.03</v>
       </c>
       <c r="F24">
-        <v>20.26</v>
+        <v>21.28</v>
       </c>
       <c r="G24">
         <v>21.12</v>
       </c>
       <c r="H24">
-        <v>38.66</v>
+        <v>38.14</v>
       </c>
       <c r="I24">
-        <v>15.17</v>
+        <v>15.08</v>
       </c>
       <c r="J24">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1212,25 +1212,25 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>184.284</v>
+        <v>299.112</v>
       </c>
       <c r="E25">
-        <v>719.86</v>
+        <v>1168.41</v>
       </c>
       <c r="F25">
-        <v>122.16</v>
+        <v>63.52</v>
       </c>
       <c r="G25">
-        <v>23.17</v>
+        <v>23.42</v>
       </c>
       <c r="H25">
-        <v>30.59</v>
+        <v>30.85</v>
       </c>
       <c r="I25">
-        <v>2.6</v>
+        <v>4.79</v>
       </c>
       <c r="J25">
-        <v>0.42</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1250,16 +1250,16 @@
         <v>1848.38</v>
       </c>
       <c r="F26">
-        <v>67.26000000000001</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="G26">
-        <v>276.48</v>
+        <v>254.98</v>
       </c>
       <c r="H26">
-        <v>436.22</v>
+        <v>432.13</v>
       </c>
       <c r="I26">
-        <v>44.12</v>
+        <v>44.3</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1276,25 +1276,25 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>20.766</v>
+        <v>17.264</v>
       </c>
       <c r="E27">
-        <v>2595.69</v>
+        <v>2158.06</v>
       </c>
       <c r="F27">
-        <v>86.5</v>
+        <v>93.25</v>
       </c>
       <c r="G27">
-        <v>296.96</v>
+        <v>337.92</v>
       </c>
       <c r="H27">
-        <v>468.99</v>
+        <v>440.32</v>
       </c>
       <c r="I27">
-        <v>36.59</v>
+        <v>38.23</v>
       </c>
       <c r="J27">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1308,25 +1308,25 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>27.148</v>
+        <v>28.973</v>
       </c>
       <c r="E28">
-        <v>3393.54</v>
+        <v>3621.57</v>
       </c>
       <c r="F28">
-        <v>143.14</v>
+        <v>131.91</v>
       </c>
       <c r="G28">
-        <v>423.94</v>
+        <v>452.61</v>
       </c>
       <c r="H28">
-        <v>522.24</v>
+        <v>536.58</v>
       </c>
       <c r="I28">
-        <v>30.01</v>
+        <v>25.04</v>
       </c>
       <c r="J28">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1340,25 +1340,25 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <v>28.285</v>
+        <v>31.829</v>
       </c>
       <c r="E29">
-        <v>3535.61</v>
+        <v>3978.63</v>
       </c>
       <c r="F29">
-        <v>269.09</v>
+        <v>245.35</v>
       </c>
       <c r="G29">
-        <v>888.83</v>
+        <v>692.22</v>
       </c>
       <c r="H29">
-        <v>1036.29</v>
+        <v>856.0599999999999</v>
       </c>
       <c r="I29">
-        <v>12.64</v>
+        <v>12.8</v>
       </c>
       <c r="J29">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1372,22 +1372,22 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>22.915</v>
+        <v>32.228</v>
       </c>
       <c r="E30">
-        <v>2864.34</v>
+        <v>4028.52</v>
       </c>
       <c r="F30">
-        <v>614.53</v>
+        <v>431.89</v>
       </c>
       <c r="G30">
-        <v>2056.19</v>
+        <v>1679.36</v>
       </c>
       <c r="H30">
-        <v>2277.38</v>
+        <v>1892.35</v>
       </c>
       <c r="I30">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="J30">
         <v>0.13</v>
@@ -1404,25 +1404,25 @@
         <v>32</v>
       </c>
       <c r="D31">
-        <v>21.972</v>
+        <v>24.44</v>
       </c>
       <c r="E31">
-        <v>2746.46</v>
+        <v>3055.01</v>
       </c>
       <c r="F31">
-        <v>1393.96</v>
+        <v>1165.97</v>
       </c>
       <c r="G31">
-        <v>3850.24</v>
+        <v>3883.01</v>
       </c>
       <c r="H31">
-        <v>4685.82</v>
+        <v>4423.68</v>
       </c>
       <c r="I31">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="J31">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1436,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>551.8819999999999</v>
+        <v>469.792</v>
       </c>
       <c r="E32">
-        <v>2155.79</v>
+        <v>1835.13</v>
       </c>
       <c r="F32">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="G32">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="H32">
-        <v>49.41</v>
+        <v>28.8</v>
       </c>
       <c r="I32">
-        <v>43.04</v>
+        <v>33.03</v>
       </c>
       <c r="J32">
-        <v>10.34</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1468,25 +1468,25 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>724.155</v>
+        <v>656.1799999999999</v>
       </c>
       <c r="E33">
-        <v>2828.73</v>
+        <v>2563.2</v>
       </c>
       <c r="F33">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="G33">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="H33">
-        <v>72.19</v>
+        <v>85.5</v>
       </c>
       <c r="I33">
-        <v>36.33</v>
+        <v>31.95</v>
       </c>
       <c r="J33">
-        <v>5.42</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1500,25 +1500,25 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>967.321</v>
+        <v>898.523</v>
       </c>
       <c r="E34">
-        <v>3778.6</v>
+        <v>3509.85</v>
       </c>
       <c r="F34">
-        <v>3.89</v>
+        <v>3.97</v>
       </c>
       <c r="G34">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="H34">
-        <v>160.77</v>
+        <v>179.2</v>
       </c>
       <c r="I34">
-        <v>25.17</v>
+        <v>24.32</v>
       </c>
       <c r="J34">
-        <v>5.96</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1532,25 +1532,25 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <v>778.164</v>
+        <v>876.736</v>
       </c>
       <c r="E35">
-        <v>3039.7</v>
+        <v>3424.75</v>
       </c>
       <c r="F35">
-        <v>9.949999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G35">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="H35">
-        <v>577.54</v>
+        <v>509.95</v>
       </c>
       <c r="I35">
-        <v>13.21</v>
+        <v>14.91</v>
       </c>
       <c r="J35">
-        <v>3.21</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1564,22 +1564,22 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>696.8440000000001</v>
+        <v>829.078</v>
       </c>
       <c r="E36">
-        <v>2722.05</v>
+        <v>3238.58</v>
       </c>
       <c r="F36">
-        <v>22.5</v>
+        <v>18.75</v>
       </c>
       <c r="G36">
-        <v>1.86</v>
+        <v>1.14</v>
       </c>
       <c r="H36">
-        <v>1335.3</v>
+        <v>1122.3</v>
       </c>
       <c r="I36">
-        <v>5.78</v>
+        <v>6.06</v>
       </c>
       <c r="J36">
         <v>1.33</v>
@@ -1596,25 +1596,25 @@
         <v>32</v>
       </c>
       <c r="D37">
-        <v>675.956</v>
+        <v>640.841</v>
       </c>
       <c r="E37">
-        <v>2640.45</v>
+        <v>2503.28</v>
       </c>
       <c r="F37">
-        <v>45.06</v>
+        <v>47.21</v>
       </c>
       <c r="G37">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="H37">
-        <v>2572.29</v>
+        <v>2539.52</v>
       </c>
       <c r="I37">
-        <v>3.58</v>
+        <v>3.14</v>
       </c>
       <c r="J37">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1628,25 +1628,25 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>2.732</v>
+        <v>2.866</v>
       </c>
       <c r="E38">
-        <v>341.45</v>
+        <v>358.29</v>
       </c>
       <c r="F38">
-        <v>312.21</v>
+        <v>294.45</v>
       </c>
       <c r="G38">
-        <v>407.55</v>
+        <v>391.17</v>
       </c>
       <c r="H38">
-        <v>432.13</v>
+        <v>415.74</v>
       </c>
       <c r="I38">
-        <v>22.45</v>
+        <v>24.05</v>
       </c>
       <c r="J38">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1660,22 +1660,22 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>5.318</v>
+        <v>5.599</v>
       </c>
       <c r="E39">
-        <v>664.72</v>
+        <v>699.9299999999999</v>
       </c>
       <c r="F39">
-        <v>271.58</v>
+        <v>253.17</v>
       </c>
       <c r="G39">
-        <v>329.73</v>
+        <v>325.63</v>
       </c>
       <c r="H39">
-        <v>366.59</v>
+        <v>358.4</v>
       </c>
       <c r="I39">
-        <v>22.8</v>
+        <v>22.59</v>
       </c>
       <c r="J39">
         <v>1.62</v>
@@ -1692,25 +1692,25 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>15.449</v>
+        <v>15.142</v>
       </c>
       <c r="E40">
-        <v>1931.16</v>
+        <v>1892.79</v>
       </c>
       <c r="F40">
-        <v>73.81999999999999</v>
+        <v>79.12</v>
       </c>
       <c r="G40">
-        <v>97.79000000000001</v>
+        <v>130.56</v>
       </c>
       <c r="H40">
-        <v>280.58</v>
+        <v>284.67</v>
       </c>
       <c r="I40">
-        <v>10.51</v>
+        <v>11.61</v>
       </c>
       <c r="J40">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1724,25 +1724,25 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>18.26</v>
+        <v>18.276</v>
       </c>
       <c r="E41">
-        <v>2282.53</v>
+        <v>2284.44</v>
       </c>
       <c r="F41">
-        <v>210.84</v>
+        <v>209.39</v>
       </c>
       <c r="G41">
-        <v>296.96</v>
+        <v>234.5</v>
       </c>
       <c r="H41">
-        <v>391.17</v>
+        <v>382.98</v>
       </c>
       <c r="I41">
-        <v>12.27</v>
+        <v>11.36</v>
       </c>
       <c r="J41">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1756,25 +1756,25 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>19.177</v>
+        <v>19.193</v>
       </c>
       <c r="E42">
-        <v>2397.07</v>
+        <v>2399.18</v>
       </c>
       <c r="F42">
-        <v>591.0700000000001</v>
+        <v>591.88</v>
       </c>
       <c r="G42">
-        <v>288.77</v>
+        <v>321.54</v>
       </c>
       <c r="H42">
-        <v>700.42</v>
+        <v>552.96</v>
       </c>
       <c r="I42">
-        <v>6.86</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1788,25 +1788,25 @@
         <v>32</v>
       </c>
       <c r="D43">
-        <v>19.61</v>
+        <v>19.553</v>
       </c>
       <c r="E43">
-        <v>2451.23</v>
+        <v>2444.1</v>
       </c>
       <c r="F43">
-        <v>1326.04</v>
+        <v>1331.61</v>
       </c>
       <c r="G43">
-        <v>362.5</v>
+        <v>468.99</v>
       </c>
       <c r="H43">
-        <v>59506.69</v>
+        <v>60030.98</v>
       </c>
       <c r="I43">
-        <v>3.41</v>
+        <v>3.8</v>
       </c>
       <c r="J43">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1820,25 +1820,25 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>90.51900000000001</v>
+        <v>89.377</v>
       </c>
       <c r="E44">
-        <v>353.59</v>
+        <v>349.13</v>
       </c>
       <c r="F44">
-        <v>9.23</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G44">
-        <v>25.22</v>
+        <v>27.26</v>
       </c>
       <c r="H44">
-        <v>34.05</v>
+        <v>33.02</v>
       </c>
       <c r="I44">
-        <v>32.57</v>
+        <v>32.98</v>
       </c>
       <c r="J44">
-        <v>6.01</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1852,25 +1852,25 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>210.557</v>
+        <v>216.469</v>
       </c>
       <c r="E45">
-        <v>822.49</v>
+        <v>845.58</v>
       </c>
       <c r="F45">
-        <v>6.21</v>
+        <v>5.93</v>
       </c>
       <c r="G45">
-        <v>7.33</v>
+        <v>7.01</v>
       </c>
       <c r="H45">
-        <v>23.68</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I45">
-        <v>28.83</v>
+        <v>27.51</v>
       </c>
       <c r="J45">
-        <v>3.9</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1884,25 +1884,25 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>338.141</v>
+        <v>328.81</v>
       </c>
       <c r="E46">
-        <v>1320.86</v>
+        <v>1284.42</v>
       </c>
       <c r="F46">
-        <v>7.18</v>
+        <v>7.58</v>
       </c>
       <c r="G46">
-        <v>9.02</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="H46">
-        <v>10.69</v>
+        <v>11.07</v>
       </c>
       <c r="I46">
-        <v>28.51</v>
+        <v>31.9</v>
       </c>
       <c r="J46">
-        <v>4.38</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1916,25 +1916,25 @@
         <v>8</v>
       </c>
       <c r="D47">
-        <v>481.882</v>
+        <v>488.05</v>
       </c>
       <c r="E47">
-        <v>1882.35</v>
+        <v>1906.45</v>
       </c>
       <c r="F47">
-        <v>10.53</v>
+        <v>10.26</v>
       </c>
       <c r="G47">
-        <v>14.02</v>
+        <v>13.89</v>
       </c>
       <c r="H47">
-        <v>20.35</v>
+        <v>15.68</v>
       </c>
       <c r="I47">
-        <v>35.12</v>
+        <v>34.29</v>
       </c>
       <c r="J47">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1948,25 +1948,25 @@
         <v>16</v>
       </c>
       <c r="D48">
-        <v>585.633</v>
+        <v>587.932</v>
       </c>
       <c r="E48">
-        <v>2287.63</v>
+        <v>2296.61</v>
       </c>
       <c r="F48">
-        <v>18.41</v>
+        <v>18.47</v>
       </c>
       <c r="G48">
-        <v>17.79</v>
+        <v>18.05</v>
       </c>
       <c r="H48">
         <v>31.36</v>
       </c>
       <c r="I48">
-        <v>17.31</v>
+        <v>17.9</v>
       </c>
       <c r="J48">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1980,25 +1980,25 @@
         <v>32</v>
       </c>
       <c r="D49">
-        <v>613.158</v>
+        <v>611.905</v>
       </c>
       <c r="E49">
-        <v>2395.15</v>
+        <v>2390.25</v>
       </c>
       <c r="F49">
-        <v>42.82</v>
+        <v>42.97</v>
       </c>
       <c r="G49">
-        <v>22.66</v>
+        <v>23.68</v>
       </c>
       <c r="H49">
-        <v>45.82</v>
+        <v>62.72</v>
       </c>
       <c r="I49">
-        <v>9.92</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="J49">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/cpu_affinity/fio_logs/fuse_results.xlsx
+++ b/cpu_affinity/fio_logs/fuse_results.xlsx
@@ -582,93 +582,45 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>54.016</v>
-      </c>
-      <c r="C6" s="5">
-        <v>58.112</v>
-      </c>
-      <c r="D6" s="5">
-        <v>67.072</v>
-      </c>
-      <c r="E6" s="5">
-        <v>108.032</v>
-      </c>
-      <c r="F6" s="5">
-        <v>569.3440000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2539.52</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>187.392</v>
-      </c>
-      <c r="C7" s="5">
-        <v>199.68</v>
-      </c>
-      <c r="D7" s="5">
-        <v>284.672</v>
-      </c>
-      <c r="E7" s="5">
-        <v>419.84</v>
-      </c>
-      <c r="F7" s="5">
-        <v>880.64</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3129.344</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>205.824</v>
-      </c>
-      <c r="C8" s="5">
-        <v>218.112</v>
-      </c>
-      <c r="D8" s="5">
-        <v>325.632</v>
-      </c>
-      <c r="E8" s="5">
-        <v>468.992</v>
-      </c>
-      <c r="F8" s="5">
-        <v>962.5599999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3424.256</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>228.352</v>
-      </c>
-      <c r="C9" s="5">
-        <v>246.784</v>
-      </c>
-      <c r="D9" s="5">
-        <v>399.36</v>
-      </c>
-      <c r="E9" s="5">
-        <v>561.152</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1155.072</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4423.68</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
@@ -731,93 +683,45 @@
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
@@ -1017,93 +921,45 @@
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="5">
-        <v>79.36</v>
-      </c>
-      <c r="C27" s="5">
-        <v>50.944</v>
-      </c>
-      <c r="D27" s="5">
-        <v>50.432</v>
-      </c>
-      <c r="E27" s="5">
-        <v>70.14400000000001</v>
-      </c>
-      <c r="F27" s="5">
-        <v>193.536</v>
-      </c>
-      <c r="G27" s="5">
-        <v>460.8</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="5">
-        <v>114.176</v>
-      </c>
-      <c r="C28" s="5">
-        <v>86.52800000000001</v>
-      </c>
-      <c r="D28" s="5">
-        <v>88.57599999999999</v>
-      </c>
-      <c r="E28" s="5">
-        <v>128.512</v>
-      </c>
-      <c r="F28" s="5">
-        <v>329.728</v>
-      </c>
-      <c r="G28" s="5">
-        <v>610.304</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="5">
-        <v>125.44</v>
-      </c>
-      <c r="C29" s="5">
-        <v>95.744</v>
-      </c>
-      <c r="D29" s="5">
-        <v>110.08</v>
-      </c>
-      <c r="E29" s="5">
-        <v>160.768</v>
-      </c>
-      <c r="F29" s="5">
-        <v>399.36</v>
-      </c>
-      <c r="G29" s="5">
-        <v>675.84</v>
-      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="5">
-        <v>156.672</v>
-      </c>
-      <c r="C30" s="5">
-        <v>142.336</v>
-      </c>
-      <c r="D30" s="5">
-        <v>158.72</v>
-      </c>
-      <c r="E30" s="5">
-        <v>248.832</v>
-      </c>
-      <c r="F30" s="5">
-        <v>569.3440000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>831.4880000000001</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
@@ -1166,93 +1022,45 @@
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
@@ -1440,93 +1248,45 @@
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="5">
-        <v>0</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="5">
-        <v>0</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="5">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
@@ -1601,93 +1361,45 @@
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="5">
-        <v>54.528</v>
-      </c>
-      <c r="C55" s="5">
-        <v>55.04</v>
-      </c>
-      <c r="D55" s="5">
-        <v>69.12</v>
-      </c>
-      <c r="E55" s="5">
-        <v>197.632</v>
-      </c>
-      <c r="F55" s="5">
-        <v>366.592</v>
-      </c>
-      <c r="G55" s="5">
-        <v>593.92</v>
-      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="5">
-        <v>69.12</v>
-      </c>
-      <c r="C56" s="5">
-        <v>62.72</v>
-      </c>
-      <c r="D56" s="5">
-        <v>78.336</v>
-      </c>
-      <c r="E56" s="5">
-        <v>284.672</v>
-      </c>
-      <c r="F56" s="5">
-        <v>53739.52</v>
-      </c>
-      <c r="G56" s="5">
-        <v>103284.736</v>
-      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="5">
-        <v>83.456</v>
-      </c>
-      <c r="C57" s="5">
-        <v>70.14400000000001</v>
-      </c>
-      <c r="D57" s="5">
-        <v>85.504</v>
-      </c>
-      <c r="E57" s="5">
-        <v>362.496</v>
-      </c>
-      <c r="F57" s="5">
-        <v>87556.09600000001</v>
-      </c>
-      <c r="G57" s="5">
-        <v>128450.56</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="5">
-        <v>109.056</v>
-      </c>
-      <c r="C58" s="5">
-        <v>112.128</v>
-      </c>
-      <c r="D58" s="5">
-        <v>120.32</v>
-      </c>
-      <c r="E58" s="5">
-        <v>41680.896</v>
-      </c>
-      <c r="F58" s="5">
-        <v>183500.8</v>
-      </c>
-      <c r="G58" s="5">
-        <v>183500.8</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
@@ -1875,93 +1587,45 @@
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="5">
-        <v>0</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="5">
-        <v>0</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="5">
-        <v>0</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0</v>
-      </c>
-      <c r="D72" s="5">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
@@ -2036,93 +1700,45 @@
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="5">
-        <v>7.84</v>
-      </c>
-      <c r="C76" s="5">
-        <v>8.256</v>
-      </c>
-      <c r="D76" s="5">
-        <v>11.072</v>
-      </c>
-      <c r="E76" s="5">
-        <v>13.504</v>
-      </c>
-      <c r="F76" s="5">
-        <v>17.792</v>
-      </c>
-      <c r="G76" s="5">
-        <v>22.144</v>
-      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="5">
-        <v>11.584</v>
-      </c>
-      <c r="C77" s="5">
-        <v>9.023999999999999</v>
-      </c>
-      <c r="D77" s="5">
-        <v>12.096</v>
-      </c>
-      <c r="E77" s="5">
-        <v>16.192</v>
-      </c>
-      <c r="F77" s="5">
-        <v>27.264</v>
-      </c>
-      <c r="G77" s="5">
-        <v>43.264</v>
-      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="5">
-        <v>18.048</v>
-      </c>
-      <c r="C78" s="5">
-        <v>9.407999999999999</v>
-      </c>
-      <c r="D78" s="5">
-        <v>12.992</v>
-      </c>
-      <c r="E78" s="5">
-        <v>18.56</v>
-      </c>
-      <c r="F78" s="5">
-        <v>34.048</v>
-      </c>
-      <c r="G78" s="5">
-        <v>95.744</v>
-      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="5">
-        <v>34.56</v>
-      </c>
-      <c r="C79" s="5">
-        <v>17.28</v>
-      </c>
-      <c r="D79" s="5">
-        <v>17.792</v>
-      </c>
-      <c r="E79" s="5">
-        <v>85.504</v>
-      </c>
-      <c r="F79" s="5">
-        <v>35389.44</v>
-      </c>
-      <c r="G79" s="5">
-        <v>64225.28</v>
-      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
@@ -2322,93 +1938,45 @@
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="5">
-        <v>42.752</v>
-      </c>
-      <c r="C90" s="5">
-        <v>50.944</v>
-      </c>
-      <c r="D90" s="5">
-        <v>82.432</v>
-      </c>
-      <c r="E90" s="5">
-        <v>268.288</v>
-      </c>
-      <c r="F90" s="5">
-        <v>485.376</v>
-      </c>
-      <c r="G90" s="5">
-        <v>4358.144</v>
-      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="5">
-        <v>46.336</v>
-      </c>
-      <c r="C91" s="5">
-        <v>59.648</v>
-      </c>
-      <c r="D91" s="5">
-        <v>98.816</v>
-      </c>
-      <c r="E91" s="5">
-        <v>569.3440000000001</v>
-      </c>
-      <c r="F91" s="5">
-        <v>1925.12</v>
-      </c>
-      <c r="G91" s="5">
-        <v>5537.792</v>
-      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="5">
-        <v>76.288</v>
-      </c>
-      <c r="C92" s="5">
-        <v>73.21599999999999</v>
-      </c>
-      <c r="D92" s="5">
-        <v>228.352</v>
-      </c>
-      <c r="E92" s="5">
-        <v>815.104</v>
-      </c>
-      <c r="F92" s="5">
-        <v>2088.96</v>
-      </c>
-      <c r="G92" s="5">
-        <v>6127.616</v>
-      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="5">
-        <v>191.488</v>
-      </c>
-      <c r="C93" s="5">
-        <v>305.152</v>
-      </c>
-      <c r="D93" s="5">
-        <v>473.088</v>
-      </c>
-      <c r="E93" s="5">
-        <v>1036.288</v>
-      </c>
-      <c r="F93" s="5">
-        <v>2408.448</v>
-      </c>
-      <c r="G93" s="5">
-        <v>9240.575999999999</v>
-      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="3" t="s">
@@ -2471,93 +2039,45 @@
       <c r="A97" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="5">
-        <v>0</v>
-      </c>
-      <c r="C97" s="5">
-        <v>0</v>
-      </c>
-      <c r="D97" s="5">
-        <v>0</v>
-      </c>
-      <c r="E97" s="5">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0</v>
-      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="5">
-        <v>0</v>
-      </c>
-      <c r="C98" s="5">
-        <v>0</v>
-      </c>
-      <c r="D98" s="5">
-        <v>0</v>
-      </c>
-      <c r="E98" s="5">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99" s="5">
-        <v>0</v>
-      </c>
-      <c r="D99" s="5">
-        <v>0</v>
-      </c>
-      <c r="E99" s="5">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5">
-        <v>0</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100" s="5">
-        <v>0</v>
-      </c>
-      <c r="D100" s="5">
-        <v>0</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <v>0</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="3" t="s">
@@ -2757,93 +2277,45 @@
       <c r="A111" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="5">
-        <v>0.386</v>
-      </c>
-      <c r="C111" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D111" s="5">
-        <v>0.612</v>
-      </c>
-      <c r="E111" s="5">
-        <v>1.012</v>
-      </c>
-      <c r="F111" s="5">
-        <v>1.448</v>
-      </c>
-      <c r="G111" s="5">
-        <v>2.224</v>
-      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="5">
-        <v>25.472</v>
-      </c>
-      <c r="C112" s="5">
-        <v>30.08</v>
-      </c>
-      <c r="D112" s="5">
-        <v>44.8</v>
-      </c>
-      <c r="E112" s="5">
-        <v>85.504</v>
-      </c>
-      <c r="F112" s="5">
-        <v>214.016</v>
-      </c>
-      <c r="G112" s="5">
-        <v>3260.416</v>
-      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="5">
-        <v>26.24</v>
-      </c>
-      <c r="C113" s="5">
-        <v>31.616</v>
-      </c>
-      <c r="D113" s="5">
-        <v>54.528</v>
-      </c>
-      <c r="E113" s="5">
-        <v>107.008</v>
-      </c>
-      <c r="F113" s="5">
-        <v>280.576</v>
-      </c>
-      <c r="G113" s="5">
-        <v>3784.704</v>
-      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="5">
-        <v>28.288</v>
-      </c>
-      <c r="C114" s="5">
-        <v>35.072</v>
-      </c>
-      <c r="D114" s="5">
-        <v>60.672</v>
-      </c>
-      <c r="E114" s="5">
-        <v>197.632</v>
-      </c>
-      <c r="F114" s="5">
-        <v>460.8</v>
-      </c>
-      <c r="G114" s="5">
-        <v>4554.752</v>
-      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="3" t="s">
@@ -2906,93 +2378,45 @@
       <c r="A118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="5">
-        <v>0</v>
-      </c>
-      <c r="C118" s="5">
-        <v>0</v>
-      </c>
-      <c r="D118" s="5">
-        <v>0</v>
-      </c>
-      <c r="E118" s="5">
-        <v>0</v>
-      </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="5">
-        <v>0</v>
-      </c>
-      <c r="C119" s="5">
-        <v>0</v>
-      </c>
-      <c r="D119" s="5">
-        <v>0</v>
-      </c>
-      <c r="E119" s="5">
-        <v>0</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="5">
-        <v>0</v>
-      </c>
-      <c r="C120" s="5">
-        <v>0</v>
-      </c>
-      <c r="D120" s="5">
-        <v>0</v>
-      </c>
-      <c r="E120" s="5">
-        <v>0</v>
-      </c>
-      <c r="F120" s="5">
-        <v>0</v>
-      </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="5">
-        <v>0</v>
-      </c>
-      <c r="C121" s="5">
-        <v>0</v>
-      </c>
-      <c r="D121" s="5">
-        <v>0</v>
-      </c>
-      <c r="E121" s="5">
-        <v>0</v>
-      </c>
-      <c r="F121" s="5">
-        <v>0</v>
-      </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="3" t="s">
@@ -3180,93 +2604,45 @@
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="5">
-        <v>0</v>
-      </c>
-      <c r="C132" s="5">
-        <v>0</v>
-      </c>
-      <c r="D132" s="5">
-        <v>0</v>
-      </c>
-      <c r="E132" s="5">
-        <v>0</v>
-      </c>
-      <c r="F132" s="5">
-        <v>0</v>
-      </c>
-      <c r="G132" s="5">
-        <v>0</v>
-      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="5">
-        <v>0</v>
-      </c>
-      <c r="C133" s="5">
-        <v>0</v>
-      </c>
-      <c r="D133" s="5">
-        <v>0</v>
-      </c>
-      <c r="E133" s="5">
-        <v>0</v>
-      </c>
-      <c r="F133" s="5">
-        <v>0</v>
-      </c>
-      <c r="G133" s="5">
-        <v>0</v>
-      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="5">
-        <v>0</v>
-      </c>
-      <c r="C134" s="5">
-        <v>0</v>
-      </c>
-      <c r="D134" s="5">
-        <v>0</v>
-      </c>
-      <c r="E134" s="5">
-        <v>0</v>
-      </c>
-      <c r="F134" s="5">
-        <v>0</v>
-      </c>
-      <c r="G134" s="5">
-        <v>0</v>
-      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B135" s="5">
-        <v>0</v>
-      </c>
-      <c r="C135" s="5">
-        <v>0</v>
-      </c>
-      <c r="D135" s="5">
-        <v>0</v>
-      </c>
-      <c r="E135" s="5">
-        <v>0</v>
-      </c>
-      <c r="F135" s="5">
-        <v>0</v>
-      </c>
-      <c r="G135" s="5">
-        <v>0</v>
-      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
@@ -3341,93 +2717,45 @@
       <c r="A139" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="5">
-        <v>50.944</v>
-      </c>
-      <c r="C139" s="5">
-        <v>52.992</v>
-      </c>
-      <c r="D139" s="5">
-        <v>68.096</v>
-      </c>
-      <c r="E139" s="5">
-        <v>199.68</v>
-      </c>
-      <c r="F139" s="5">
-        <v>257.024</v>
-      </c>
-      <c r="G139" s="5">
-        <v>387.072</v>
-      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="5">
-        <v>81.408</v>
-      </c>
-      <c r="C140" s="5">
-        <v>72.19199999999999</v>
-      </c>
-      <c r="D140" s="5">
-        <v>77.312</v>
-      </c>
-      <c r="E140" s="5">
-        <v>309.248</v>
-      </c>
-      <c r="F140" s="5">
-        <v>36438.016</v>
-      </c>
-      <c r="G140" s="5">
-        <v>57933.824</v>
-      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="5">
-        <v>103.936</v>
-      </c>
-      <c r="C141" s="5">
-        <v>102.912</v>
-      </c>
-      <c r="D141" s="5">
-        <v>83.456</v>
-      </c>
-      <c r="E141" s="5">
-        <v>27131.904</v>
-      </c>
-      <c r="F141" s="5">
-        <v>41680.896</v>
-      </c>
-      <c r="G141" s="5">
-        <v>63176.704</v>
-      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="5">
-        <v>358.4</v>
-      </c>
-      <c r="C142" s="5">
-        <v>250.88</v>
-      </c>
-      <c r="D142" s="5">
-        <v>136.192</v>
-      </c>
-      <c r="E142" s="5">
-        <v>43253.76</v>
-      </c>
-      <c r="F142" s="5">
-        <v>52166.656</v>
-      </c>
-      <c r="G142" s="5">
-        <v>79167.488</v>
-      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3" t="s">
@@ -3615,93 +2943,45 @@
       <c r="A153" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="5">
-        <v>0</v>
-      </c>
-      <c r="C153" s="5">
-        <v>0</v>
-      </c>
-      <c r="D153" s="5">
-        <v>0</v>
-      </c>
-      <c r="E153" s="5">
-        <v>0</v>
-      </c>
-      <c r="F153" s="5">
-        <v>0</v>
-      </c>
-      <c r="G153" s="5">
-        <v>0</v>
-      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="5">
-        <v>0</v>
-      </c>
-      <c r="C154" s="5">
-        <v>0</v>
-      </c>
-      <c r="D154" s="5">
-        <v>0</v>
-      </c>
-      <c r="E154" s="5">
-        <v>0</v>
-      </c>
-      <c r="F154" s="5">
-        <v>0</v>
-      </c>
-      <c r="G154" s="5">
-        <v>0</v>
-      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="5">
-        <v>0</v>
-      </c>
-      <c r="C155" s="5">
-        <v>0</v>
-      </c>
-      <c r="D155" s="5">
-        <v>0</v>
-      </c>
-      <c r="E155" s="5">
-        <v>0</v>
-      </c>
-      <c r="F155" s="5">
-        <v>0</v>
-      </c>
-      <c r="G155" s="5">
-        <v>0</v>
-      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B156" s="5">
-        <v>0</v>
-      </c>
-      <c r="C156" s="5">
-        <v>0</v>
-      </c>
-      <c r="D156" s="5">
-        <v>0</v>
-      </c>
-      <c r="E156" s="5">
-        <v>0</v>
-      </c>
-      <c r="F156" s="5">
-        <v>0</v>
-      </c>
-      <c r="G156" s="5">
-        <v>0</v>
-      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="3" t="s">
@@ -3776,93 +3056,45 @@
       <c r="A160" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="5">
-        <v>6.752</v>
-      </c>
-      <c r="C160" s="5">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="D160" s="5">
-        <v>10.944</v>
-      </c>
-      <c r="E160" s="5">
-        <v>13.632</v>
-      </c>
-      <c r="F160" s="5">
-        <v>18.304</v>
-      </c>
-      <c r="G160" s="5">
-        <v>20.608</v>
-      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B161" s="5">
-        <v>8.768000000000001</v>
-      </c>
-      <c r="C161" s="5">
-        <v>9.407999999999999</v>
-      </c>
-      <c r="D161" s="5">
-        <v>11.84</v>
-      </c>
-      <c r="E161" s="5">
-        <v>19.84</v>
-      </c>
-      <c r="F161" s="5">
-        <v>33.024</v>
-      </c>
-      <c r="G161" s="5">
-        <v>34.048</v>
-      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B162" s="5">
-        <v>9.792</v>
-      </c>
-      <c r="C162" s="5">
-        <v>9.792</v>
-      </c>
-      <c r="D162" s="5">
-        <v>12.224</v>
-      </c>
-      <c r="E162" s="5">
-        <v>31.616</v>
-      </c>
-      <c r="F162" s="5">
-        <v>57.088</v>
-      </c>
-      <c r="G162" s="5">
-        <v>59.136</v>
-      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="5">
-        <v>30.08</v>
-      </c>
-      <c r="C163" s="5">
-        <v>12.096</v>
-      </c>
-      <c r="D163" s="5">
-        <v>16.32</v>
-      </c>
-      <c r="E163" s="5">
-        <v>75.264</v>
-      </c>
-      <c r="F163" s="5">
-        <v>98.816</v>
-      </c>
-      <c r="G163" s="5">
-        <v>248.832</v>
-      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">

--- a/cpu_affinity/fio_logs/fuse_results.xlsx
+++ b/cpu_affinity/fio_logs/fuse_results.xlsx
@@ -459,8 +459,8 @@
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
     <col width="10" customWidth="1" min="15" max="15"/>
@@ -480,12 +480,12 @@
     <col width="10" customWidth="1" min="29" max="29"/>
     <col width="10" customWidth="1" min="30" max="30"/>
     <col width="10" customWidth="1" min="31" max="31"/>
-    <col width="10" customWidth="1" min="32" max="32"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
     <col width="20" customWidth="1" min="33" max="33"/>
-    <col width="11" customWidth="1" min="34" max="34"/>
+    <col width="10" customWidth="1" min="34" max="34"/>
     <col width="10" customWidth="1" min="35" max="35"/>
     <col width="10" customWidth="1" min="36" max="36"/>
-    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
     <col width="12" customWidth="1" min="38" max="38"/>
     <col width="10" customWidth="1" min="39" max="39"/>
     <col width="10" customWidth="1" min="40" max="40"/>
@@ -741,148 +741,148 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3618</v>
+        <v>3386</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7220</v>
+        <v>6826</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>16400</v>
+        <v>13300</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>23900</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>28500</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>24200</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>13500</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>26500</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>50700</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>111000</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>193000</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>182000</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>4131</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>7980</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>8780</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>7074</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>13300</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>112000</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>205000</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>346000</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>489000</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>570000</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>17300</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>26000</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>26400</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>33700</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>32400</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>13700</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>28500</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>54900</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>127000</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>223000</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>214000</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>2540</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>12700</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>20300</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>25700</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>24300</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>6715</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>80100</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>225000</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>365000</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>524000</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>687000</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>206000</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>17600</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>20400</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>25800</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>22300</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>20500</v>
+        <v>18200</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>19500</v>
+        <v>17800</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>137000</v>
+        <v>488000</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>881000</v>
+        <v>552000</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1095000</v>
+        <v>655000</v>
       </c>
       <c r="AI3" s="4" t="n">
-        <v>964000</v>
+        <v>499000</v>
       </c>
       <c r="AJ3" s="4" t="n">
-        <v>897000</v>
+        <v>451000</v>
       </c>
       <c r="AK3" s="4" t="n">
-        <v>848000</v>
+        <v>438000</v>
       </c>
       <c r="AL3" s="4" t="n">
-        <v>4329</v>
+        <v>4171</v>
       </c>
       <c r="AM3" s="4" t="n">
-        <v>5316</v>
+        <v>9671</v>
       </c>
       <c r="AN3" s="4" t="n">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="AO3" s="4" t="n">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="AP3" s="4" t="n">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="AQ3" s="4" t="n">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="AR3" s="4" t="n">
-        <v>127000</v>
+        <v>121000</v>
       </c>
       <c r="AS3" s="4" t="n">
-        <v>200000</v>
+        <v>191000</v>
       </c>
       <c r="AT3" s="4" t="n">
-        <v>324000</v>
+        <v>313000</v>
       </c>
       <c r="AU3" s="4" t="n">
         <v>488000</v>
       </c>
       <c r="AV3" s="4" t="n">
-        <v>589000</v>
+        <v>587000</v>
       </c>
       <c r="AW3" s="4" t="n">
-        <v>615000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="4">
@@ -892,148 +892,148 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>946</v>
+        <v>895</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>2149</v>
+        <v>1740</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3465</v>
+        <v>3136</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4412</v>
+        <v>3737</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4245</v>
+        <v>3167</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>56.2</v>
+        <v>55.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>915</v>
+        <v>790</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>876</v>
+        <v>747</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>333</v>
+        <v>541</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1665</v>
+        <v>1046</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2663</v>
+        <v>1509</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3369</v>
+        <v>1151</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>3181</v>
+        <v>927</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>880</v>
+        <v>1748</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>923</v>
+        <v>840</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1496</v>
+        <v>1418</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2146</v>
+        <v>2005</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2815</v>
+        <v>2335</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>842</v>
+        <v>736</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2304</v>
+        <v>1970</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2668</v>
+        <v>2272</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3385</v>
+        <v>3409</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2919</v>
+        <v>3462</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2689</v>
+        <v>2382</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>2550</v>
+        <v>2331</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>560</v>
+        <v>2000</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3609</v>
+        <v>2261</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4483</v>
+        <v>2681</v>
       </c>
       <c r="AI4" s="4" t="n">
-        <v>3948</v>
+        <v>2043</v>
       </c>
       <c r="AJ4" s="4" t="n">
-        <v>3674</v>
+        <v>1848</v>
       </c>
       <c r="AK4" s="4" t="n">
-        <v>3472</v>
+        <v>1795</v>
       </c>
       <c r="AL4" s="4" t="n">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="AM4" s="4" t="n">
-        <v>697</v>
+        <v>1268</v>
       </c>
       <c r="AN4" s="4" t="n">
-        <v>2002</v>
+        <v>2026</v>
       </c>
       <c r="AO4" s="4" t="n">
-        <v>2407</v>
+        <v>2380</v>
       </c>
       <c r="AP4" s="4" t="n">
-        <v>2467</v>
+        <v>2494</v>
       </c>
       <c r="AQ4" s="4" t="n">
-        <v>2560</v>
+        <v>2565</v>
       </c>
       <c r="AR4" s="4" t="n">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="AS4" s="4" t="n">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="AT4" s="4" t="n">
-        <v>1326</v>
+        <v>1282</v>
       </c>
       <c r="AU4" s="4" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="AV4" s="4" t="n">
-        <v>2411</v>
+        <v>2404</v>
       </c>
       <c r="AW4" s="4" t="n">
-        <v>2521</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="5">
@@ -1043,148 +1043,148 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>275.54</v>
+        <v>294.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>274.37</v>
+        <v>286.94</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>240.24</v>
+        <v>297</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>294.04</v>
+        <v>319.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>468.92</v>
+        <v>492.84</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>978.01</v>
+        <v>1225.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>72.07329</v>
+        <v>73.41388000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>68.05185</v>
+        <v>74.35232000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>70.74344000000001</v>
+        <v>76.79875</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>60.13715</v>
+        <v>70.61686999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>69.00686999999999</v>
+        <v>82.28485000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>147.61884</v>
+        <v>174.62591</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>253</v>
+        <v>102.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>56.81</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>66.25</v>
+        <v>65.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>95.05</v>
+        <v>113.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>430.27</v>
+        <v>1059.97</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>3158.93</v>
+        <v>1219.94</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.75</v>
+        <v>7.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.02</v>
+        <v>8.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.57</v>
+        <v>10.92</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.04</v>
+        <v>18.06</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>104.25</v>
+        <v>119.87</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>56.64</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>86.20999999999999</v>
+        <v>114.62</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>147.17</v>
+        <v>152.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>352.31</v>
+        <v>293.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>770.58</v>
+        <v>794.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>1626.79</v>
+        <v>1718.97</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.91275</v>
+        <v>1.94339</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.15037</v>
+        <v>3.06688</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.48678</v>
+        <v>5.70481</v>
       </c>
       <c r="AI5" s="4" t="n">
-        <v>7.9978</v>
+        <v>15.47526</v>
       </c>
       <c r="AJ5" s="4" t="n">
-        <v>17.38597</v>
+        <v>34.37654</v>
       </c>
       <c r="AK5" s="4" t="n">
-        <v>36.95587</v>
+        <v>71.06938000000001</v>
       </c>
       <c r="AL5" s="4" t="n">
-        <v>177.06</v>
+        <v>187.25</v>
       </c>
       <c r="AM5" s="4" t="n">
-        <v>272.4</v>
+        <v>103.3</v>
       </c>
       <c r="AN5" s="4" t="n">
-        <v>71.44</v>
+        <v>73.75</v>
       </c>
       <c r="AO5" s="4" t="n">
-        <v>211.28</v>
+        <v>209.38</v>
       </c>
       <c r="AP5" s="4" t="n">
-        <v>592.13</v>
+        <v>587.73</v>
       </c>
       <c r="AQ5" s="4" t="n">
-        <v>1342.34</v>
+        <v>1342.06</v>
       </c>
       <c r="AR5" s="4" t="n">
-        <v>6.12</v>
+        <v>6.5</v>
       </c>
       <c r="AS5" s="4" t="n">
-        <v>7.35</v>
+        <v>7.16</v>
       </c>
       <c r="AT5" s="4" t="n">
-        <v>7.63</v>
+        <v>8.18</v>
       </c>
       <c r="AU5" s="4" t="n">
-        <v>10.15</v>
+        <v>10.37</v>
       </c>
       <c r="AV5" s="4" t="n">
-        <v>19.17</v>
+        <v>18.99</v>
       </c>
       <c r="AW5" s="4" t="n">
-        <v>43.2</v>
+        <v>43.34</v>
       </c>
     </row>
     <row r="6">
@@ -1194,148 +1194,148 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="E6" s="4" t="n">
+        <v>668</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1188</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2638</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>136.192</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>140.288</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>160.768</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>166.912</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>228.352</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>444.416</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>371</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>429</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>537</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>955</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2008</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>137</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>136.192</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>143</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>140.288</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>189.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>382.976</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>396</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>125</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>469</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>562</v>
-      </c>
       <c r="T6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="U6" s="4" t="n">
-        <v>8.384</v>
-      </c>
       <c r="V6" s="4" t="n">
-        <v>8.768000000000001</v>
+        <v>10.688</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>14.272</v>
+        <v>14.784</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y6" s="4" t="n">
         <v>24</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>996</v>
+        <v>922</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2008</v>
+        <v>2114</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>4146</v>
+        <v>4015</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.256</v>
+        <v>0.524</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.612</v>
+        <v>0.804</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.668</v>
+        <v>1.176</v>
       </c>
       <c r="AI6" s="4" t="n">
-        <v>1.384</v>
+        <v>2.384</v>
       </c>
       <c r="AJ6" s="4" t="n">
-        <v>1.368</v>
+        <v>2.384</v>
       </c>
       <c r="AK6" s="4" t="n">
-        <v>1.528</v>
+        <v>2.288</v>
       </c>
       <c r="AL6" s="4" t="n">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AM6" s="4" t="n">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="AN6" s="4" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AO6" s="4" t="n">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="AP6" s="4" t="n">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AQ6" s="4" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AR6" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS6" s="4" t="n">
-        <v>9.023999999999999</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="AT6" s="4" t="n">
-        <v>9.664</v>
+        <v>10.688</v>
       </c>
       <c r="AU6" s="4" t="n">
-        <v>13.632</v>
+        <v>14.016</v>
       </c>
       <c r="AV6" s="4" t="n">
         <v>18</v>
       </c>
       <c r="AW6" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1345,148 +1345,148 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>619</v>
+        <v>848</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1106</v>
+        <v>1467</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2573</v>
+        <v>3425</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>174</v>
+        <v>189.44</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>171.008</v>
+        <v>191.488</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>188</v>
+        <v>203.776</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>195.584</v>
+        <v>236.544</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>292.864</v>
+        <v>354.304</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>528.384</v>
+        <v>602.112</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>416</v>
+        <v>734</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>570</v>
+        <v>41157</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>101188</v>
+        <v>44303</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>11.584</v>
+        <v>14</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.176</v>
+        <v>12.608</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>18.048</v>
+        <v>25.216</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z7" s="4" t="n">
         <v>359</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1172</v>
+        <v>1221</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2311</v>
+        <v>2343</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>5538</v>
+        <v>5800</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>107.008</v>
+        <v>40.704</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>99.84</v>
+        <v>63.232</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>148.48</v>
+        <v>199.68</v>
       </c>
       <c r="AI7" s="4" t="n">
-        <v>407.552</v>
+        <v>774.144</v>
       </c>
       <c r="AJ7" s="4" t="n">
-        <v>970.752</v>
+        <v>2007.04</v>
       </c>
       <c r="AK7" s="4" t="n">
-        <v>1990.656</v>
+        <v>4227.072</v>
       </c>
       <c r="AL7" s="4" t="n">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="AM7" s="4" t="n">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="AN7" s="4" t="n">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="AO7" s="4" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AP7" s="4" t="n">
-        <v>523</v>
+        <v>603</v>
       </c>
       <c r="AQ7" s="4" t="n">
-        <v>60556</v>
+        <v>59507</v>
       </c>
       <c r="AR7" s="4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS7" s="4" t="n">
-        <v>10.048</v>
+        <v>9.792</v>
       </c>
       <c r="AT7" s="4" t="n">
-        <v>11.072</v>
+        <v>12.352</v>
       </c>
       <c r="AU7" s="4" t="n">
-        <v>15.424</v>
+        <v>15.808</v>
       </c>
       <c r="AV7" s="4" t="n">
         <v>32</v>
       </c>
       <c r="AW7" s="4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1496,148 +1496,148 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>28.99</v>
+        <v>27.13</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>30.32</v>
+        <v>30.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>25.17</v>
+        <v>28.27</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>23.61</v>
+        <v>22.74</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>11.48</v>
+        <v>13.75</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>4.95</v>
+        <v>5.18</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>17.84</v>
+        <v>16.76</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.92</v>
+        <v>18</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>19.12</v>
+        <v>17.79</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.48</v>
+        <v>13.79</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.05</v>
+        <v>5.02</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3.27</v>
+        <v>2.74</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>18.03</v>
+        <v>12.06</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.96</v>
+        <v>11.35</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>12.22</v>
+        <v>6.96</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.06</v>
+        <v>4.88</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>12.74</v>
+        <v>3.82</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>1.8</v>
+        <v>2.97</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>33.55</v>
+        <v>40.75</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.45</v>
+        <v>36.34</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>26.87</v>
+        <v>33.69</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>36.76</v>
+        <v>32.66</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>20.2</v>
+        <v>16.11</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>49.25</v>
+        <v>41.18</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>38.84</v>
+        <v>39.76</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>29.09</v>
+        <v>29.14</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>18.77</v>
+        <v>18.83</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.33</v>
+        <v>9.85</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>4</v>
+        <v>3.89</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>35.79</v>
+        <v>40.11</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>38.29</v>
+        <v>33.69</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>25.39</v>
+        <v>24.23</v>
       </c>
       <c r="AI8" s="4" t="n">
-        <v>18.83</v>
+        <v>20.48</v>
       </c>
       <c r="AJ8" s="4" t="n">
-        <v>9.49</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AK8" s="4" t="n">
-        <v>4.18</v>
+        <v>4.1</v>
       </c>
       <c r="AL8" s="4" t="n">
-        <v>22.53</v>
+        <v>25.01</v>
       </c>
       <c r="AM8" s="4" t="n">
-        <v>23.37</v>
+        <v>18.38</v>
       </c>
       <c r="AN8" s="4" t="n">
-        <v>10.01</v>
+        <v>10.59</v>
       </c>
       <c r="AO8" s="4" t="n">
-        <v>12.05</v>
+        <v>12.15</v>
       </c>
       <c r="AP8" s="4" t="n">
-        <v>7.09</v>
+        <v>7.51</v>
       </c>
       <c r="AQ8" s="4" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="AR8" s="4" t="n">
-        <v>30.58</v>
+        <v>33.04</v>
       </c>
       <c r="AS8" s="4" t="n">
-        <v>37.74</v>
+        <v>32.03</v>
       </c>
       <c r="AT8" s="4" t="n">
-        <v>30.52</v>
+        <v>33.61</v>
       </c>
       <c r="AU8" s="4" t="n">
-        <v>35.65</v>
+        <v>34.81</v>
       </c>
       <c r="AV8" s="4" t="n">
-        <v>18.66</v>
+        <v>17.16</v>
       </c>
       <c r="AW8" s="4" t="n">
-        <v>8.93</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1647,148 +1647,148 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.13</v>
+        <v>0.85</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>3.23</v>
+        <v>2.54</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>2.02</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.58</v>
+        <v>0.55</v>
       </c>
       <c r="O9" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AL9" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM9" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AN9" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO9" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP9" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0.44</v>
-      </c>
       <c r="AQ9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="AR9" s="4" t="n">
-        <v>5.22</v>
+        <v>7.11</v>
       </c>
       <c r="AS9" s="4" t="n">
-        <v>6.56</v>
+        <v>5.12</v>
       </c>
       <c r="AT9" s="4" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AU9" s="4" t="n">
-        <v>3.7</v>
+        <v>4.57</v>
       </c>
       <c r="AV9" s="4" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AW9" s="4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>
